--- a/pred_ohlcv/54_21/2020-01-15 XMR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 XMR ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>92.21757046587501</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>92.21757046587501</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -574,7 +574,7 @@
         <v>91.74747046587501</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>91.74747046587501</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>91.74747046587501</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -756,7 +756,7 @@
         <v>88.66747046587501</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>88.68747046587501</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-64707.79652953412</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-64707.79652953412</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-64707.79652953412</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-64707.79652953412</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-64707.79652953412</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-64707.79652953412</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-64707.79652953412</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-64707.79652953412</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-64704.19552953412</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-64703.51792953411</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-64703.61792953411</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-64701.61792953411</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-64701.61792953411</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-64751.20002953411</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-64736.84672953411</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-64735.72112953411</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-64666.65626599167</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-64687.26796599168</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-64687.26796599168</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-64687.26796599168</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-64667.26796599168</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-64667.26796599168</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-64667.26796599168</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-64667.26796599168</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-64651.82719389867</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-64678.16959389866</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-64700.09649389866</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-64705.43869389866</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-64713.12949389865</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-64713.12949389865</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-64713.12949389865</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-64719.26789389866</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-64679.63069389866</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-64748.69549389866</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-64720.89889389866</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-64776.43799389866</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-64767.06819477522</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-64767.06819477522</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-64802.06819477522</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-64801.96819477522</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-64801.96819477522</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-64804.20659477522</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-64802.20659477522</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-65477.98339953712</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-65479.46089953712</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-65480.94529953712</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-65481.09529953713</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-65512.59119953713</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-65499.72699953713</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-65499.72699953713</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-65501.31559953713</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-65552.58809953713</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-65552.48809953712</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-65562.56269953713</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-65609.67569953713</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-65609.67569953713</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-65609.67569953713</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-65608.55019953713</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-65580.61734408587</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-65582.11734408587</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-65582.11734408587</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-65619.03311385331</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-65655.91971385331</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-65655.91971385331</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-65652.31431385331</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-65643.6429138533</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-65651.0994138533</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-65651.0994138533</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-65659.2753138533</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-65659.2753138533</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-65659.2753138533</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-65666.7318138533</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-65666.7318138533</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-65666.5459138533</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-65666.7318138533</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-65666.60262780679</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-65671.60262780679</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-65668.84792780678</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-65670.20462780679</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-65710.11732780679</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-65713.88362780679</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-65717.09392780678</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-65716.03392780678</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-65720.00682780678</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-65600.26022780678</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-65610.13892780678</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-65600.13892780678</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-65601.74182780678</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-65619.65652780677</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-65634.23552780677</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-65647.84012780678</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-65647.27212780678</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-65649.53382780678</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-65649.21442780679</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-65651.17002780679</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-65519.81562780679</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-65420.61942780679</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-65423.30352780679</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-65434.20832780679</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-65484.44752780679</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-65468.84622780679</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-65470.58112780679</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-65472.12352780679</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-65472.11552780679</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-65472.75052780679</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-65472.75052780679</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-65477.81552780679</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-65477.81552780679</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-65457.09802780679</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-15 XMR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 XMR ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>92.21757046587501</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>92.21757046587501</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>91.74747046587501</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>91.74747046587501</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>91.74747046587501</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>91.74747046587501</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -730,7 +730,7 @@
         <v>88.66747046587501</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -808,7 +808,7 @@
         <v>88.59747046587501</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>88.917470465875</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-64883.01372953413</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-64884.09072953412</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-64687.26796599168</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-64687.26796599168</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-64667.26796599168</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-64667.26796599168</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-64667.26796599168</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-64667.26796599168</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-64654.06556599169</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-64654.06556599169</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-64651.82719389867</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-64651.82719389867</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-64654.85219389867</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-64668.72379389867</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-64683.89499389866</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-64678.16959389866</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-64700.09649389866</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-64705.43869389866</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-64713.12949389865</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-64713.12949389865</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-64713.12949389865</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-64719.26789389866</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-64679.63069389866</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-64748.69549389866</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-64720.89889389866</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-64776.43799389866</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-64767.06819477522</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-64767.06819477522</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-64767.06819477522</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-64802.06819477522</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-64802.06819477522</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-64801.96819477522</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-64801.96819477522</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-64804.20659477522</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-64802.20659477522</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-65478.03149477522</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-65477.98339953712</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-65479.46089953712</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-65480.94529953712</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-65481.09529953713</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-65479.09529953713</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-65512.59119953713</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-65513.85989953713</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-65499.72699953713</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-65499.72699953713</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-65501.31559953713</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-65500.73559953713</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-65552.58809953713</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-65552.48809953712</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-65562.56269953713</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-65588.39449953713</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-65609.67569953713</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-65609.67569953713</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-65609.67569953713</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-65608.55019953713</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-65608.55019953713</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-65580.61734408587</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-65582.11734408587</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-65582.11734408587</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-65619.03311385331</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-65655.91971385331</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-65655.91971385331</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-65656.21181385331</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-65652.31431385331</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-65643.6429138533</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-65651.0994138533</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-65651.0994138533</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-65659.2753138533</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-65666.7318138533</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-65671.60262780679</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-65668.84792780678</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-65670.20462780679</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-65710.11732780679</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-65717.09392780678</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-65720.00682780678</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-65600.26022780678</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-65610.13892780678</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-65600.13892780678</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-65634.23552780677</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-65647.84012780678</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-65647.27212780678</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-65649.53382780678</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-65649.21442780679</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-65651.17002780679</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-65519.81562780679</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-65420.61942780679</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-65423.30352780679</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-65434.20832780679</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-65484.44752780679</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-65472.12352780679</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-65472.11552780679</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-65472.75052780679</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-65477.81552780679</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-65477.81552780679</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-65457.09802780679</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
